--- a/server/uploads/redfix.xlsx
+++ b/server/uploads/redfix.xlsx
@@ -424,16 +424,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>instructive –</v>
+        <v>flaunted</v>
       </c>
       <c r="B2" t="str">
-        <v>מאלף, מחכים</v>
+        <v>התרברב</v>
       </c>
       <c r="C2" t="str">
-        <v>white</v>
+        <v>red</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -444,16 +444,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>entitled</v>
+        <v>rebellious</v>
       </c>
       <c r="B3" t="str">
-        <v>זכאי</v>
+        <v>מרדני</v>
       </c>
       <c r="C3" t="str">
-        <v>white</v>
+        <v>red</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -464,16 +464,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>notorious</v>
+        <v>drape</v>
       </c>
       <c r="B4" t="str">
-        <v>ידוע לשמצה</v>
+        <v>תלה, כיסה</v>
       </c>
       <c r="C4" t="str">
         <v>white</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -484,16 +484,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>exploit</v>
+        <v>consecutive</v>
       </c>
       <c r="B5" t="str">
-        <v>לנצל</v>
+        <v>רצוף</v>
       </c>
       <c r="C5" t="str">
         <v>white</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -504,16 +504,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>mutual</v>
+        <v>essence</v>
       </c>
       <c r="B6" t="str">
-        <v>שופע</v>
+        <v>מהות</v>
       </c>
       <c r="C6" t="str">
         <v>white</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -524,16 +524,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>district</v>
+        <v>fairly</v>
       </c>
       <c r="B7" t="str">
-        <v>מחוז</v>
+        <v>למדי</v>
       </c>
       <c r="C7" t="str">
         <v>white</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -544,36 +544,33 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>complies</v>
+        <v>throughout</v>
       </c>
       <c r="B8" t="str">
-        <v>נענה ל-</v>
+        <v>בכולו</v>
       </c>
       <c r="C8" t="str">
         <v>white</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
-      </c>
-      <c r="F8" t="str">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>flaunted</v>
+        <v>reverted</v>
       </c>
       <c r="B9" t="str">
-        <v>התרברב</v>
+        <v>חזר</v>
       </c>
       <c r="C9" t="str">
         <v>white</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -584,16 +581,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>amorous</v>
+        <v>district</v>
       </c>
       <c r="B10" t="str">
-        <v>מאוהב</v>
+        <v>מחוז</v>
       </c>
       <c r="C10" t="str">
-        <v>white</v>
+        <v>green</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -604,53 +601,47 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>advertise</v>
+        <v>procrastination</v>
       </c>
       <c r="B11" t="str">
-        <v>פירסם</v>
+        <v>התמהמהות</v>
       </c>
       <c r="C11" t="str">
-        <v>white</v>
+        <v>green</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
-      </c>
-      <c r="F11" t="str">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>grimaced</v>
+        <v>dispensable</v>
       </c>
       <c r="B12" t="str">
-        <v>עווה את פניו</v>
+        <v>חסר</v>
       </c>
       <c r="C12" t="str">
         <v>white</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
-      </c>
-      <c r="F12" t="str">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>taut</v>
+        <v>diverting</v>
       </c>
       <c r="B13" t="str">
-        <v>מתוח</v>
+        <v>להטות</v>
       </c>
       <c r="C13" t="str">
-        <v>white</v>
+        <v>green</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -664,16 +655,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve">friction </v>
+        <v xml:space="preserve">tremble </v>
       </c>
       <c r="B14" t="str">
-        <v>חיכוך</v>
+        <v>לרעוד</v>
       </c>
       <c r="C14" t="str">
-        <v>white</v>
+        <v>red</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -681,36 +672,33 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>intrigued</v>
+        <v>laid out</v>
       </c>
       <c r="B15" t="str">
-        <v>מסוקרן</v>
+        <v>מונחת</v>
       </c>
       <c r="C15" t="str">
         <v>white</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
-      </c>
-      <c r="F15" t="str">
-        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>outlets</v>
+        <v>abound</v>
       </c>
       <c r="B16" t="str">
-        <v>מוֹצָאים</v>
+        <v>שופע</v>
       </c>
       <c r="C16" t="str">
-        <v>white</v>
+        <v>red</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -721,16 +709,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>pleas</v>
+        <v>scarce</v>
       </c>
       <c r="B17" t="str">
-        <v>תחנונים</v>
+        <v>מועט</v>
       </c>
       <c r="C17" t="str">
         <v>white</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -741,96 +729,87 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>diverting</v>
+        <v>compulsory</v>
       </c>
       <c r="B18" t="str">
-        <v>להטות</v>
+        <v>חובה</v>
       </c>
       <c r="C18" t="str">
         <v>white</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
-      </c>
-      <c r="F18" t="str">
-        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>imposed</v>
+        <v>exploit</v>
       </c>
       <c r="B19" t="str">
-        <v>הטילה</v>
+        <v>לנצל</v>
       </c>
       <c r="C19" t="str">
         <v>white</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="str">
-        <v>martial law imposed</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>convent</v>
+        <v xml:space="preserve">practice </v>
       </c>
       <c r="B20" t="str">
-        <v>מנזר</v>
+        <v>מנהג,נוהג</v>
       </c>
       <c r="C20" t="str">
         <v>white</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
-      </c>
-      <c r="F20" t="str">
-        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>fads</v>
+        <v xml:space="preserve">can exact a toll </v>
       </c>
       <c r="B21" t="str">
-        <v>גחמות</v>
+        <v>יכול לגבות מחיר</v>
       </c>
       <c r="C21" t="str">
         <v>white</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
-      </c>
-      <c r="F21" t="str">
-        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>sprang up</v>
+        <v>maintain</v>
       </c>
       <c r="B22" t="str">
-        <v>צצו</v>
+        <v>לתחזק</v>
       </c>
       <c r="C22" t="str">
         <v>white</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -841,16 +820,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v xml:space="preserve">provision </v>
+        <v xml:space="preserve">heresy </v>
       </c>
       <c r="B23" t="str">
-        <v>אספקה</v>
+        <v>כפירה</v>
       </c>
       <c r="C23" t="str">
-        <v>white</v>
+        <v>green</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -858,36 +837,33 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>essence</v>
+        <v>keep up with</v>
       </c>
       <c r="B24" t="str">
-        <v>מהות</v>
+        <v>עומדת בקצב</v>
       </c>
       <c r="C24" t="str">
         <v>white</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
-      </c>
-      <c r="F24" t="str">
-        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>maintained</v>
+        <v>tether</v>
       </c>
       <c r="B25" t="str">
-        <v>מתוחזקת</v>
+        <v>לקשור</v>
       </c>
       <c r="C25" t="str">
         <v>white</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -895,67 +871,61 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>drab</v>
-      </c>
-      <c r="B26" t="str">
-        <v>בלוי</v>
+        <v>hollered</v>
       </c>
       <c r="C26" t="str">
         <v>white</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
-      </c>
-      <c r="F26" t="str">
-        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>graze</v>
+        <v>radiance</v>
       </c>
       <c r="B27" t="str">
-        <v>לרעות</v>
+        <v>זוֹהַר</v>
       </c>
       <c r="C27" t="str">
         <v>white</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
-      </c>
-      <c r="F27" t="str">
-        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>notwithstanding</v>
+        <v>pleas</v>
       </c>
       <c r="B28" t="str">
-        <v>על אף</v>
+        <v>תחנונים</v>
       </c>
       <c r="C28" t="str">
         <v>white</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>resenting</v>
+        <v>trim</v>
       </c>
       <c r="B29" t="str">
-        <v>להתמרמר</v>
+        <v>לקצץ, לגזום; לסדר, לטפח; לעטר</v>
       </c>
       <c r="C29" t="str">
         <v>white</v>
@@ -972,16 +942,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>trim</v>
+        <v>entitled</v>
       </c>
       <c r="B30" t="str">
-        <v>לקצץ, לגזום; לסדר, לטפח; לעטר</v>
+        <v>זכאי</v>
       </c>
       <c r="C30" t="str">
         <v>white</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -992,36 +962,33 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>restriction</v>
+        <v>hollered</v>
       </c>
       <c r="B31" t="str">
-        <v>הגבלה</v>
+        <v>לצעוק</v>
       </c>
       <c r="C31" t="str">
         <v>white</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
-      </c>
-      <c r="F31" t="str">
-        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>corporations</v>
+        <v>ostentatious</v>
       </c>
       <c r="B32" t="str">
-        <v>תאגידים</v>
+        <v>ראוותני</v>
       </c>
       <c r="C32" t="str">
         <v>white</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1032,73 +999,70 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v xml:space="preserve">foster </v>
+        <v>notorious</v>
       </c>
       <c r="B33" t="str">
-        <v>מטפח</v>
+        <v>ידוע לשמצה</v>
       </c>
       <c r="C33" t="str">
         <v>white</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>maintain</v>
+        <v>expedition</v>
       </c>
       <c r="B34" t="str">
-        <v>לתחזק</v>
+        <v>מִשׁלַחַת</v>
       </c>
       <c r="C34" t="str">
         <v>white</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
-      </c>
-      <c r="F34" t="str">
-        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>dispute</v>
+        <v xml:space="preserve">coherence </v>
       </c>
       <c r="B35" t="str">
-        <v>ויכוח</v>
+        <v>עקביות</v>
       </c>
       <c r="C35" t="str">
         <v>white</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
-      </c>
-      <c r="F35" t="str">
-        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>scarce</v>
+        <v>sprang up</v>
       </c>
       <c r="B36" t="str">
-        <v>מועט</v>
+        <v>צצו</v>
       </c>
       <c r="C36" t="str">
         <v>white</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1109,56 +1073,50 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>relented</v>
+        <v xml:space="preserve">hesitant </v>
       </c>
       <c r="B37" t="str">
-        <v>התרכך</v>
+        <v>הססן</v>
       </c>
       <c r="C37" t="str">
         <v>white</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
-      </c>
-      <c r="F37" t="str">
-        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>deposit</v>
+        <v>advocate</v>
       </c>
       <c r="B38" t="str">
-        <v>להפקיד</v>
+        <v>עורך דין</v>
       </c>
       <c r="C38" t="str">
         <v>white</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
-      </c>
-      <c r="F38" t="str">
-        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>reinforce</v>
+        <v>lulled</v>
       </c>
       <c r="B39" t="str">
-        <v>לחזק, לתגבר</v>
+        <v>הורגעו</v>
       </c>
       <c r="C39" t="str">
         <v>white</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1169,193 +1127,175 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>foster</v>
+        <v xml:space="preserve">Ravenously </v>
       </c>
       <c r="B40" t="str">
-        <v>עודד, טיפח</v>
+        <v>אכל בהתלהבות</v>
       </c>
       <c r="C40" t="str">
         <v>white</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
-      </c>
-      <c r="F40" t="str">
-        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>apparatus</v>
+        <v>Numb</v>
       </c>
       <c r="B41" t="str">
-        <v>מַנגָנוֹן</v>
+        <v>רדום</v>
       </c>
       <c r="C41" t="str">
         <v>white</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
-      </c>
-      <c r="F41" t="str">
-        <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>eloquent</v>
+        <v>ailments</v>
       </c>
       <c r="B42" t="str">
-        <v>ברהיטות</v>
+        <v>מחלות</v>
       </c>
       <c r="C42" t="str">
         <v>white</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>reprimand</v>
+        <v>concentrated</v>
       </c>
       <c r="B43" t="str">
-        <v>נזיפה</v>
+        <v>מְרוּכָּז</v>
       </c>
       <c r="C43" t="str">
         <v>white</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
-      </c>
-      <c r="F43" t="str">
-        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>attire</v>
+        <v>enhanced</v>
       </c>
       <c r="B44" t="str">
-        <v>לבוש</v>
+        <v>משופרת</v>
       </c>
       <c r="C44" t="str">
         <v>white</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
-      </c>
-      <c r="F44" t="str">
-        <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>flaws</v>
+        <v>imposed</v>
       </c>
       <c r="B45" t="str">
-        <v>פגמים</v>
+        <v>הטילה</v>
       </c>
       <c r="C45" t="str">
         <v>white</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="str">
-        <v/>
+        <v>martial law imposed</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>perished</v>
+        <v>curiosity</v>
       </c>
       <c r="B46" t="str">
-        <v>מת</v>
+        <v>סַקרָנוּת</v>
       </c>
       <c r="C46" t="str">
         <v>white</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
-      </c>
-      <c r="F46" t="str">
-        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>tedious</v>
+        <v xml:space="preserve">taunt </v>
       </c>
       <c r="B47" t="str">
-        <v>מעיק</v>
+        <v>לגלוג</v>
       </c>
       <c r="C47" t="str">
         <v>white</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
-      </c>
-      <c r="F47" t="str">
-        <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>preserve</v>
+        <v xml:space="preserve">assimilated </v>
       </c>
       <c r="B48" t="str">
-        <v>נשמר</v>
+        <v>הטמיע</v>
       </c>
       <c r="C48" t="str">
         <v>white</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
-      </c>
-      <c r="F48" t="str">
-        <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>predicament</v>
+        <v>restriction</v>
       </c>
       <c r="B49" t="str">
-        <v>מַצָב קָשֶׁה</v>
+        <v>הגבלה</v>
       </c>
       <c r="C49" t="str">
         <v>white</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -1366,27 +1306,30 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v xml:space="preserve">fugitive  </v>
+        <v>relented</v>
       </c>
       <c r="B50" t="str">
-        <v>נמלט</v>
+        <v>התרכך</v>
       </c>
       <c r="C50" t="str">
         <v>white</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>aspire</v>
+        <v>keen</v>
       </c>
       <c r="B51" t="str">
-        <v>לִשְׁאוֹף</v>
+        <v>חד</v>
       </c>
       <c r="C51" t="str">
         <v>white</v>
@@ -1396,20 +1339,23 @@
       </c>
       <c r="E51" t="b">
         <v>0</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>inaugurated</v>
+        <v>reprimand</v>
       </c>
       <c r="B52" t="str">
-        <v>חנך</v>
+        <v>נזיפה</v>
       </c>
       <c r="C52" t="str">
         <v>white</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -1420,44 +1366,50 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v xml:space="preserve">seemingly </v>
+        <v>virtue</v>
       </c>
       <c r="B53" t="str">
-        <v>לכאורה</v>
+        <v>מעלה</v>
       </c>
       <c r="C53" t="str">
         <v>white</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
+      </c>
+      <c r="F53" t="str">
+        <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>makes up for</v>
+        <v>pious</v>
       </c>
       <c r="B54" t="str">
-        <v xml:space="preserve">מפצה </v>
+        <v>אדוק</v>
       </c>
       <c r="C54" t="str">
         <v>white</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
+      </c>
+      <c r="F54" t="str">
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>timid</v>
+        <v>evacuate</v>
       </c>
       <c r="B55" t="str">
-        <v>ביישן</v>
+        <v>לפנות</v>
       </c>
       <c r="C55" t="str">
         <v>white</v>
@@ -1483,7 +1435,7 @@
         <v>white</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -1491,16 +1443,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v xml:space="preserve">feigned </v>
+        <v>Vague</v>
       </c>
       <c r="B57" t="str">
-        <v>העמיד פנים</v>
+        <v>בטוח לא</v>
       </c>
       <c r="C57" t="str">
         <v>white</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -1508,36 +1460,33 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>pitched</v>
+        <v xml:space="preserve">trampled </v>
       </c>
       <c r="B58" t="str">
-        <v>נזרקו</v>
+        <v>רמס, דרס</v>
       </c>
       <c r="C58" t="str">
         <v>white</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
-      </c>
-      <c r="F58" t="str">
-        <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>culprit</v>
+        <v>intrigued</v>
       </c>
       <c r="B59" t="str">
-        <v>נאשם, עבריין</v>
+        <v>מסוקרן</v>
       </c>
       <c r="C59" t="str">
         <v>white</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -1548,10 +1497,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>obscurity</v>
+        <v xml:space="preserve">redeemed </v>
       </c>
       <c r="B60" t="str">
-        <v>אלמוניות</v>
+        <v>קפדה</v>
       </c>
       <c r="C60" t="str">
         <v>white</v>
@@ -1565,10 +1514,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>irate</v>
+        <v>intact</v>
       </c>
       <c r="B61" t="str">
-        <v>זועם</v>
+        <v>שלם</v>
       </c>
       <c r="C61" t="str">
         <v>white</v>
@@ -1585,16 +1534,16 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>fanciful</v>
+        <v>Gingerly</v>
       </c>
       <c r="B62" t="str">
-        <v>דִמיוֹנִי</v>
+        <v>בזהירות</v>
       </c>
       <c r="C62" t="str">
         <v>white</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -1602,10 +1551,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>throughout</v>
+        <v>fanciful</v>
       </c>
       <c r="B63" t="str">
-        <v>בכולו,במשך</v>
+        <v>דִמיוֹנִי</v>
       </c>
       <c r="C63" t="str">
         <v>white</v>
@@ -1615,17 +1564,14 @@
       </c>
       <c r="E63" t="b">
         <v>0</v>
-      </c>
-      <c r="F63" t="str">
-        <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>ascension</v>
+        <v>ornaments</v>
       </c>
       <c r="B64" t="str">
-        <v>עליה</v>
+        <v>קישוטים</v>
       </c>
       <c r="C64" t="str">
         <v>white</v>
@@ -1642,10 +1588,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>gratify</v>
+        <v>pedestal</v>
       </c>
       <c r="B65" t="str">
-        <v>להשביע רצון</v>
+        <v>אדןתבסיס</v>
       </c>
       <c r="C65" t="str">
         <v>white</v>
@@ -1655,23 +1601,20 @@
       </c>
       <c r="E65" t="b">
         <v>0</v>
-      </c>
-      <c r="F65" t="str">
-        <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>sore</v>
+        <v>amorous</v>
       </c>
       <c r="B66" t="str">
-        <v>דלקת</v>
+        <v>מאוהב</v>
       </c>
       <c r="C66" t="str">
         <v>white</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -1682,10 +1625,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>ornaments</v>
+        <v>tarnished</v>
       </c>
       <c r="B67" t="str">
-        <v>קישוטים</v>
+        <v>מוכתם</v>
       </c>
       <c r="C67" t="str">
         <v>white</v>
@@ -1695,60 +1638,57 @@
       </c>
       <c r="E67" t="b">
         <v>0</v>
-      </c>
-      <c r="F67" t="str">
-        <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v xml:space="preserve">advocate </v>
+        <v>perished</v>
       </c>
       <c r="B68" t="str">
-        <v>תומך</v>
+        <v>מת</v>
       </c>
       <c r="C68" t="str">
         <v>white</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
+      </c>
+      <c r="F68" t="str">
+        <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>chant</v>
+        <v xml:space="preserve">instructive </v>
       </c>
       <c r="B69" t="str">
-        <v>לזמר</v>
+        <v>מְאַלֵף</v>
       </c>
       <c r="C69" t="str">
         <v>white</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
-      </c>
-      <c r="F69" t="str">
-        <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>compulsory</v>
+        <v>protagonist</v>
       </c>
       <c r="B70" t="str">
-        <v>חובה</v>
+        <v>דמות ראשית</v>
       </c>
       <c r="C70" t="str">
         <v>white</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -1756,10 +1696,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>– makes up for</v>
+        <v>conjecture</v>
       </c>
       <c r="B71" t="str">
-        <v>מפצה על משהו</v>
+        <v>לְשַׁעֵר</v>
       </c>
       <c r="C71" t="str">
         <v>white</v>
@@ -1776,10 +1716,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>abound</v>
+        <v>ascension</v>
       </c>
       <c r="B72" t="str">
-        <v>שופע</v>
+        <v>עליה</v>
       </c>
       <c r="C72" t="str">
         <v>white</v>
@@ -1796,27 +1736,30 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v xml:space="preserve">ambiguous </v>
+        <v>fads</v>
       </c>
       <c r="B73" t="str">
-        <v>דו משמעי</v>
+        <v>גחמות</v>
       </c>
       <c r="C73" t="str">
         <v>white</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
+      </c>
+      <c r="F73" t="str">
+        <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>flocked</v>
+        <v>inaugurated</v>
       </c>
       <c r="B74" t="str">
-        <v>נהרו</v>
+        <v>חנך</v>
       </c>
       <c r="C74" t="str">
         <v>white</v>
@@ -1826,20 +1769,23 @@
       </c>
       <c r="E74" t="b">
         <v>0</v>
+      </c>
+      <c r="F74" t="str">
+        <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>fairly</v>
+        <v>foster</v>
       </c>
       <c r="B75" t="str">
-        <v>למדי</v>
+        <v>עודד, טיפח</v>
       </c>
       <c r="C75" t="str">
         <v>white</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
@@ -1850,16 +1796,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>overstated</v>
+        <v>commemorate</v>
       </c>
       <c r="B76" t="str">
-        <v>הפריזו</v>
+        <v>להנציח</v>
       </c>
       <c r="C76" t="str">
         <v>white</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
@@ -1870,10 +1816,10 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>evacuate</v>
+        <v>edict</v>
       </c>
       <c r="B77" t="str">
-        <v>לפנות</v>
+        <v>צו</v>
       </c>
       <c r="C77" t="str">
         <v>white</v>
@@ -1890,10 +1836,10 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>fostering</v>
+        <v>preserve</v>
       </c>
       <c r="B78" t="str">
-        <v>לטפח</v>
+        <v>נשמר</v>
       </c>
       <c r="C78" t="str">
         <v>white</v>
@@ -1910,30 +1856,27 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>orphaned</v>
+        <v>interior</v>
       </c>
       <c r="B79" t="str">
-        <v>יתום</v>
+        <v>פְּנִים</v>
       </c>
       <c r="C79" t="str">
         <v>white</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
-      </c>
-      <c r="F79" t="str">
-        <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>reverted</v>
+        <v>pavement</v>
       </c>
       <c r="B80" t="str">
-        <v>חזר</v>
+        <v>מדרכה</v>
       </c>
       <c r="C80" t="str">
         <v>white</v>
@@ -1950,36 +1893,33 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>ailments</v>
+        <v>Moaned</v>
       </c>
       <c r="B81" t="str">
-        <v>מחלות</v>
+        <v>להיאנח</v>
       </c>
       <c r="C81" t="str">
         <v>white</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
-      </c>
-      <c r="F81" t="str">
-        <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v xml:space="preserve">taunt </v>
+        <v>precise</v>
       </c>
       <c r="B82" t="str">
-        <v>לגלוג</v>
+        <v>מדיוק</v>
       </c>
       <c r="C82" t="str">
         <v>white</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
@@ -1987,16 +1927,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>intact</v>
+        <v>sore</v>
       </c>
       <c r="B83" t="str">
-        <v>שלם</v>
+        <v>דלקת</v>
       </c>
       <c r="C83" t="str">
         <v>white</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
@@ -2007,10 +1947,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v xml:space="preserve">procession </v>
+        <v>culprit</v>
       </c>
       <c r="B84" t="str">
-        <v>תהלוכה</v>
+        <v>נאשם, עבריין</v>
       </c>
       <c r="C84" t="str">
         <v>white</v>
@@ -2020,31 +1960,37 @@
       </c>
       <c r="E84" t="b">
         <v>0</v>
+      </c>
+      <c r="F84" t="str">
+        <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v xml:space="preserve">coherence </v>
+        <v>mutual</v>
       </c>
       <c r="B85" t="str">
-        <v>עקביות</v>
+        <v>שופע</v>
       </c>
       <c r="C85" t="str">
         <v>white</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
+      </c>
+      <c r="F85" t="str">
+        <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>laid out</v>
+        <v>fostering</v>
       </c>
       <c r="B86" t="str">
-        <v>מונחת</v>
+        <v>לטפח</v>
       </c>
       <c r="C86" t="str">
         <v>white</v>
@@ -2054,20 +2000,23 @@
       </c>
       <c r="E86" t="b">
         <v>0</v>
+      </c>
+      <c r="F86" t="str">
+        <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>lavish</v>
+        <v>obscure</v>
       </c>
       <c r="B87" t="str">
-        <v>פזרני</v>
+        <v>מעורפל, לא ברור</v>
       </c>
       <c r="C87" t="str">
         <v>white</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
@@ -2078,16 +2027,16 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>unprecedented</v>
+        <v>apparatus</v>
       </c>
       <c r="B88" t="str">
-        <v>חסר תקדים</v>
+        <v>מַנגָנוֹן</v>
       </c>
       <c r="C88" t="str">
         <v>white</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
@@ -2098,50 +2047,56 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>pedestal</v>
+        <v>debut</v>
       </c>
       <c r="B89" t="str">
-        <v>אדןתבסיס</v>
+        <v>הופיע לראשונה</v>
       </c>
       <c r="C89" t="str">
         <v>white</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
+      </c>
+      <c r="F89" t="str">
+        <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v xml:space="preserve">can exact a toll </v>
+        <v>dispute</v>
       </c>
       <c r="B90" t="str">
-        <v>יכול לגבות מחיר</v>
+        <v>ויכוח</v>
       </c>
       <c r="C90" t="str">
         <v>white</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
+      </c>
+      <c r="F90" t="str">
+        <v/>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>consecutive</v>
+        <v>deceptive</v>
       </c>
       <c r="B91" t="str">
-        <v>רצוף</v>
+        <v>מטעה</v>
       </c>
       <c r="C91" t="str">
         <v>white</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
@@ -2152,44 +2107,50 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>concentrated</v>
+        <v>resenting</v>
       </c>
       <c r="B92" t="str">
-        <v>מְרוּכָּז</v>
+        <v>מתרעם</v>
       </c>
       <c r="C92" t="str">
         <v>white</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
+      </c>
+      <c r="F92" t="str">
+        <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v xml:space="preserve">practice </v>
+        <v>zealous</v>
       </c>
       <c r="B93" t="str">
-        <v>מנהג,נוהג</v>
+        <v>נלהב</v>
       </c>
       <c r="C93" t="str">
         <v>white</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
+      </c>
+      <c r="F93" t="str">
+        <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>drape</v>
+        <v>lavish</v>
       </c>
       <c r="B94" t="str">
-        <v>תלה, כיסה</v>
+        <v>פזרני</v>
       </c>
       <c r="C94" t="str">
         <v>white</v>
@@ -2206,16 +2167,16 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>edict</v>
+        <v>enlightened</v>
       </c>
       <c r="B95" t="str">
-        <v>צו</v>
+        <v/>
       </c>
       <c r="C95" t="str">
         <v>white</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -2226,16 +2187,16 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>radiance</v>
+        <v xml:space="preserve">Avenue </v>
       </c>
       <c r="B96" t="str">
-        <v>זוֹהַר</v>
+        <v>שדרה</v>
       </c>
       <c r="C96" t="str">
         <v>white</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
@@ -2243,10 +2204,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>deceptive</v>
+        <v>overstated</v>
       </c>
       <c r="B97" t="str">
-        <v>מטעה</v>
+        <v>הפריזו</v>
       </c>
       <c r="C97" t="str">
         <v>white</v>
@@ -2263,36 +2224,33 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>keen</v>
+        <v>encountered</v>
       </c>
       <c r="B98" t="str">
-        <v>חד</v>
+        <v>נתקל ב</v>
       </c>
       <c r="C98" t="str">
         <v>white</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
-      </c>
-      <c r="F98" t="str">
-        <v/>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>tranquil</v>
+        <v>deposit</v>
       </c>
       <c r="B99" t="str">
-        <v>רגוע</v>
+        <v>להפקיד</v>
       </c>
       <c r="C99" t="str">
         <v>white</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
@@ -2303,36 +2261,33 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>conjecture</v>
+        <v>densely</v>
       </c>
       <c r="B100" t="str">
-        <v>לְשַׁעֵר</v>
+        <v>בצפיפות</v>
       </c>
       <c r="C100" t="str">
         <v>white</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
-      </c>
-      <c r="F100" t="str">
-        <v/>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v xml:space="preserve">tremble </v>
+        <v>Emptied</v>
       </c>
       <c r="B101" t="str">
-        <v>לרעוד</v>
+        <v>לרוקן</v>
       </c>
       <c r="C101" t="str">
         <v>white</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
@@ -2340,36 +2295,33 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>acclaimed</v>
+        <v>summoned</v>
       </c>
       <c r="B102" t="str">
-        <v>זכה לשבחים</v>
+        <v>זומן</v>
       </c>
       <c r="C102" t="str">
         <v>white</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
-      </c>
-      <c r="F102" t="str">
-        <v/>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v xml:space="preserve">redeemed </v>
+        <v xml:space="preserve">contagious </v>
       </c>
       <c r="B103" t="str">
-        <v>קפדה</v>
+        <v>מידבק</v>
       </c>
       <c r="C103" t="str">
         <v>white</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
@@ -2377,10 +2329,10 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v xml:space="preserve">hesitant </v>
+        <v>chant</v>
       </c>
       <c r="B104" t="str">
-        <v>הססן</v>
+        <v>לזמר</v>
       </c>
       <c r="C104" t="str">
         <v>white</v>
@@ -2390,54 +2342,63 @@
       </c>
       <c r="E104" t="b">
         <v>0</v>
+      </c>
+      <c r="F104" t="str">
+        <v/>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>tarnished</v>
+        <v>faint</v>
       </c>
       <c r="B105" t="str">
-        <v>מוכתם</v>
+        <v>עמום</v>
       </c>
       <c r="C105" t="str">
         <v>white</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
+      </c>
+      <c r="F105" t="str">
+        <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v xml:space="preserve">imitation </v>
+        <v>convict</v>
       </c>
       <c r="B106" t="str">
-        <v>חיקוי</v>
+        <v>אסיר</v>
       </c>
       <c r="C106" t="str">
         <v>white</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
+      </c>
+      <c r="F106" t="str">
+        <v/>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>rebellious</v>
+        <v>graze</v>
       </c>
       <c r="B107" t="str">
-        <v>מרדני</v>
+        <v>לרעות</v>
       </c>
       <c r="C107" t="str">
         <v>white</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
@@ -2448,16 +2409,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>procrastination</v>
+        <v xml:space="preserve">pruned </v>
       </c>
       <c r="B108" t="str">
-        <v>התמהמהות</v>
+        <v>גזם, קצץ</v>
       </c>
       <c r="C108" t="str">
         <v>white</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
@@ -2465,10 +2426,10 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>pavement</v>
+        <v>pitched</v>
       </c>
       <c r="B109" t="str">
-        <v>מדרכה</v>
+        <v>נזרקו</v>
       </c>
       <c r="C109" t="str">
         <v>white</v>
@@ -2485,10 +2446,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>summoned</v>
+        <v>venturing</v>
       </c>
       <c r="B110" t="str">
-        <v>זומן</v>
+        <v>להעז</v>
       </c>
       <c r="C110" t="str">
         <v>white</v>
@@ -2502,16 +2463,16 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>ostentatious</v>
+        <v>tranquil</v>
       </c>
       <c r="B111" t="str">
-        <v>ראוותני</v>
+        <v>רגוע</v>
       </c>
       <c r="C111" t="str">
         <v>white</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
@@ -2522,16 +2483,16 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v xml:space="preserve">trampled </v>
+        <v xml:space="preserve">ambiguous </v>
       </c>
       <c r="B112" t="str">
-        <v>רמס, דרס</v>
+        <v>דו משמעי</v>
       </c>
       <c r="C112" t="str">
         <v>white</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
@@ -2539,16 +2500,16 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>debut</v>
+        <v>orphaned</v>
       </c>
       <c r="B113" t="str">
-        <v>הופיע לראשונה</v>
+        <v>יתום</v>
       </c>
       <c r="C113" t="str">
         <v>white</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
@@ -2559,27 +2520,30 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>enhanced</v>
+        <v>instructive –</v>
       </c>
       <c r="B114" t="str">
-        <v>משופרת</v>
+        <v>מאלף, מחכים</v>
       </c>
       <c r="C114" t="str">
         <v>white</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
+      </c>
+      <c r="F114" t="str">
+        <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>keep up with</v>
+        <v>persuaded</v>
       </c>
       <c r="B115" t="str">
-        <v>עומדת בקצב</v>
+        <v>השתכנע</v>
       </c>
       <c r="C115" t="str">
         <v>white</v>
@@ -2593,16 +2557,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v xml:space="preserve">instructive </v>
+        <v>makes up for</v>
       </c>
       <c r="B116" t="str">
-        <v>מְאַלֵף</v>
+        <v xml:space="preserve">מפצה </v>
       </c>
       <c r="C116" t="str">
         <v>white</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
@@ -2610,16 +2574,16 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>convict</v>
+        <v>taut</v>
       </c>
       <c r="B117" t="str">
-        <v>אסיר</v>
+        <v>מתוח</v>
       </c>
       <c r="C117" t="str">
         <v>white</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
@@ -2630,10 +2594,10 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>substituting</v>
+        <v xml:space="preserve">Vomit </v>
       </c>
       <c r="B118" t="str">
-        <v>מחליף</v>
+        <v>להקיא</v>
       </c>
       <c r="C118" t="str">
         <v>white</v>
@@ -2647,16 +2611,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>curiosity</v>
+        <v>aspire</v>
       </c>
       <c r="B119" t="str">
-        <v>סַקרָנוּת</v>
+        <v>לִשְׁאוֹף</v>
       </c>
       <c r="C119" t="str">
         <v>white</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
@@ -2664,50 +2628,56 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>protagonist</v>
+        <v>flaws</v>
       </c>
       <c r="B120" t="str">
-        <v>דמות ראשית</v>
+        <v>פגמים</v>
       </c>
       <c r="C120" t="str">
         <v>white</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
+      </c>
+      <c r="F120" t="str">
+        <v/>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v xml:space="preserve">contagious </v>
+        <v>throughout</v>
       </c>
       <c r="B121" t="str">
-        <v>מידבק</v>
+        <v>בכולו,במשך</v>
       </c>
       <c r="C121" t="str">
         <v>white</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
+      </c>
+      <c r="F121" t="str">
+        <v/>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>enlightened</v>
+        <v>unprecedented</v>
       </c>
       <c r="B122" t="str">
-        <v/>
+        <v>חסר תקדים</v>
       </c>
       <c r="C122" t="str">
         <v>white</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
@@ -2718,30 +2688,27 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>zealous</v>
+        <v>notwithstanding</v>
       </c>
       <c r="B123" t="str">
-        <v>נלהב</v>
+        <v>על אף</v>
       </c>
       <c r="C123" t="str">
         <v>white</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
-      </c>
-      <c r="F123" t="str">
-        <v/>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>resenting</v>
+        <v>Welded</v>
       </c>
       <c r="B124" t="str">
-        <v>מתרעם</v>
+        <v>להתחבר</v>
       </c>
       <c r="C124" t="str">
         <v>white</v>
@@ -2751,37 +2718,31 @@
       </c>
       <c r="E124" t="b">
         <v>0</v>
-      </c>
-      <c r="F124" t="str">
-        <v/>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>lulled</v>
+        <v>maintained</v>
       </c>
       <c r="B125" t="str">
-        <v>הורגעו</v>
+        <v>מתוחזקת</v>
       </c>
       <c r="C125" t="str">
         <v>white</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
-      </c>
-      <c r="F125" t="str">
-        <v/>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>addicted</v>
+        <v>susceptibility</v>
       </c>
       <c r="B126" t="str">
-        <v>מָכוּר</v>
+        <v>רגישות</v>
       </c>
       <c r="C126" t="str">
         <v>white</v>
@@ -2795,10 +2756,10 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>precise</v>
+        <v>reconciled</v>
       </c>
       <c r="B127" t="str">
-        <v>מדיוק</v>
+        <v>התפייס</v>
       </c>
       <c r="C127" t="str">
         <v>white</v>
@@ -2808,20 +2769,23 @@
       </c>
       <c r="E127" t="b">
         <v>0</v>
+      </c>
+      <c r="F127" t="str">
+        <v/>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>reconciled</v>
+        <v>– makes up for</v>
       </c>
       <c r="B128" t="str">
-        <v>התפייס</v>
+        <v>מפצה על משהו</v>
       </c>
       <c r="C128" t="str">
         <v>white</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
@@ -2832,16 +2796,16 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>advocate</v>
+        <v xml:space="preserve">feigned </v>
       </c>
       <c r="B129" t="str">
-        <v>עורך דין</v>
+        <v>העמיד פנים</v>
       </c>
       <c r="C129" t="str">
         <v>white</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
@@ -2849,16 +2813,16 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>interior</v>
+        <v>flocked</v>
       </c>
       <c r="B130" t="str">
-        <v>פְּנִים</v>
+        <v>נהרו</v>
       </c>
       <c r="C130" t="str">
         <v>white</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
@@ -2866,36 +2830,33 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>virtue</v>
+        <v xml:space="preserve">imitation </v>
       </c>
       <c r="B131" t="str">
-        <v>מעלה</v>
+        <v>חיקוי</v>
       </c>
       <c r="C131" t="str">
         <v>white</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
-      </c>
-      <c r="F131" t="str">
-        <v/>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>obscure</v>
+        <v>drab</v>
       </c>
       <c r="B132" t="str">
-        <v>מעורפל, לא ברור</v>
+        <v>בלוי</v>
       </c>
       <c r="C132" t="str">
         <v>white</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
@@ -2906,10 +2867,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>asserted</v>
+        <v>devotees</v>
       </c>
       <c r="B133" t="str">
-        <v>טען</v>
+        <v>חסידים</v>
       </c>
       <c r="C133" t="str">
         <v>white</v>
@@ -2919,34 +2880,34 @@
       </c>
       <c r="E133" t="b">
         <v>0</v>
-      </c>
-      <c r="F133" t="str">
-        <v/>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v xml:space="preserve">heresy </v>
+        <v>complies</v>
       </c>
       <c r="B134" t="str">
-        <v>כפירה</v>
+        <v>נענה ל-</v>
       </c>
       <c r="C134" t="str">
         <v>white</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
+      </c>
+      <c r="F134" t="str">
+        <v/>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>throughout</v>
+        <v>asserted</v>
       </c>
       <c r="B135" t="str">
-        <v>בכולו</v>
+        <v>טען</v>
       </c>
       <c r="C135" t="str">
         <v>white</v>
@@ -2956,20 +2917,23 @@
       </c>
       <c r="E135" t="b">
         <v>0</v>
+      </c>
+      <c r="F135" t="str">
+        <v/>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v xml:space="preserve">assimilated </v>
+        <v>obscurity</v>
       </c>
       <c r="B136" t="str">
-        <v>הטמיע</v>
+        <v>אלמוניות</v>
       </c>
       <c r="C136" t="str">
         <v>white</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
@@ -2977,50 +2941,56 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>susceptibility</v>
+        <v>corporations</v>
       </c>
       <c r="B137" t="str">
-        <v>רגישות</v>
+        <v>תאגידים</v>
       </c>
       <c r="C137" t="str">
         <v>white</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
+      </c>
+      <c r="F137" t="str">
+        <v/>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>venturing</v>
+        <v>predicament</v>
       </c>
       <c r="B138" t="str">
-        <v>להעז</v>
+        <v>מַצָב קָשֶׁה</v>
       </c>
       <c r="C138" t="str">
         <v>white</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
+      </c>
+      <c r="F138" t="str">
+        <v/>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>commemorate</v>
+        <v>tedious</v>
       </c>
       <c r="B139" t="str">
-        <v>להנציח</v>
+        <v>מעיק</v>
       </c>
       <c r="C139" t="str">
         <v>white</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
@@ -3031,50 +3001,56 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>densely</v>
+        <v>advertise</v>
       </c>
       <c r="B140" t="str">
-        <v>בצפיפות</v>
+        <v>פירסם</v>
       </c>
       <c r="C140" t="str">
         <v>white</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
+      </c>
+      <c r="F140" t="str">
+        <v/>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v xml:space="preserve">pruned </v>
+        <v>gratify</v>
       </c>
       <c r="B141" t="str">
-        <v>גזם, קצץ</v>
+        <v>להשביע רצון</v>
       </c>
       <c r="C141" t="str">
         <v>white</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
+      </c>
+      <c r="F141" t="str">
+        <v/>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>faint</v>
+        <v>acclaimed</v>
       </c>
       <c r="B142" t="str">
-        <v>עמום</v>
+        <v>זכה לשבחים</v>
       </c>
       <c r="C142" t="str">
         <v>white</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
@@ -3085,10 +3061,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>devotees</v>
+        <v>Degenerated</v>
       </c>
       <c r="B143" t="str">
-        <v>חסידים</v>
+        <v>מנוון</v>
       </c>
       <c r="C143" t="str">
         <v>white</v>
@@ -3102,16 +3078,16 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>expedition</v>
+        <v xml:space="preserve">procession </v>
       </c>
       <c r="B144" t="str">
-        <v>מִשׁלַחַת</v>
+        <v>תהלוכה</v>
       </c>
       <c r="C144" t="str">
         <v>white</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
@@ -3119,27 +3095,30 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>dispensable</v>
+        <v>timid</v>
       </c>
       <c r="B145" t="str">
-        <v>חסר</v>
+        <v>ביישן</v>
       </c>
       <c r="C145" t="str">
         <v>white</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
+      </c>
+      <c r="F145" t="str">
+        <v/>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>pious</v>
+        <v>substituting</v>
       </c>
       <c r="B146" t="str">
-        <v>אדוק</v>
+        <v>מחליף</v>
       </c>
       <c r="C146" t="str">
         <v>white</v>
@@ -3149,40 +3128,40 @@
       </c>
       <c r="E146" t="b">
         <v>0</v>
-      </c>
-      <c r="F146" t="str">
-        <v/>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>encountered</v>
+        <v>convent</v>
       </c>
       <c r="B147" t="str">
-        <v>נתקל ב</v>
+        <v>מנזר</v>
       </c>
       <c r="C147" t="str">
         <v>white</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
+      </c>
+      <c r="F147" t="str">
+        <v/>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Ghfjf</v>
+        <v xml:space="preserve">provision </v>
       </c>
       <c r="B148" t="str">
-        <v>Fhfh</v>
+        <v>אספקה</v>
       </c>
       <c r="C148" t="str">
         <v>white</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
@@ -3190,13 +3169,16 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Emptied</v>
+        <v>Ghfjf</v>
       </c>
       <c r="B149" t="str">
-        <v>לרוקן</v>
+        <v>Fhfh</v>
       </c>
       <c r="C149" t="str">
         <v>white</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
@@ -3204,27 +3186,36 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Vague</v>
+        <v>irate</v>
       </c>
       <c r="B150" t="str">
-        <v>בטוח לא</v>
+        <v>זועם</v>
       </c>
       <c r="C150" t="str">
         <v>white</v>
       </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
       <c r="E150" t="b">
         <v>0</v>
+      </c>
+      <c r="F150" t="str">
+        <v/>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Welded</v>
+        <v xml:space="preserve">foster </v>
       </c>
       <c r="B151" t="str">
-        <v>להתחבר</v>
+        <v>מטפח</v>
       </c>
       <c r="C151" t="str">
         <v>white</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
@@ -3232,13 +3223,16 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Moaned</v>
+        <v>eloquent</v>
       </c>
       <c r="B152" t="str">
-        <v>להיאנח</v>
+        <v>ברהיטות</v>
       </c>
       <c r="C152" t="str">
         <v>white</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
@@ -3246,13 +3240,16 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Degenerated</v>
+        <v xml:space="preserve">fugitive  </v>
       </c>
       <c r="B153" t="str">
-        <v>מנוון</v>
+        <v>נמלט</v>
       </c>
       <c r="C153" t="str">
         <v>white</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
@@ -3260,41 +3257,56 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Gingerly</v>
+        <v>attire</v>
       </c>
       <c r="B154" t="str">
-        <v>בזהירות</v>
+        <v>לבוש</v>
       </c>
       <c r="C154" t="str">
         <v>white</v>
       </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
       <c r="E154" t="b">
         <v>0</v>
+      </c>
+      <c r="F154" t="str">
+        <v/>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v xml:space="preserve">Ravenously </v>
+        <v>grimaced</v>
       </c>
       <c r="B155" t="str">
-        <v>אכל בהתלהבות</v>
+        <v>עווה את פניו</v>
       </c>
       <c r="C155" t="str">
         <v>white</v>
       </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
       <c r="E155" t="b">
         <v>0</v>
+      </c>
+      <c r="F155" t="str">
+        <v/>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v xml:space="preserve">Avenue </v>
+        <v xml:space="preserve">seemingly </v>
       </c>
       <c r="B156" t="str">
-        <v>שדרה</v>
+        <v>לכאורה</v>
       </c>
       <c r="C156" t="str">
         <v>white</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
@@ -3302,30 +3314,42 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Numb</v>
+        <v>outlets</v>
       </c>
       <c r="B157" t="str">
-        <v>רדום</v>
+        <v>מוֹצָאים</v>
       </c>
       <c r="C157" t="str">
         <v>white</v>
       </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
       <c r="E157" t="b">
         <v>0</v>
+      </c>
+      <c r="F157" t="str">
+        <v/>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v xml:space="preserve">Vomit </v>
+        <v>resenting</v>
       </c>
       <c r="B158" t="str">
-        <v>להקיא</v>
+        <v>להתמרמר</v>
       </c>
       <c r="C158" t="str">
         <v>white</v>
       </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
       <c r="E158" t="b">
         <v>0</v>
+      </c>
+      <c r="F158" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/server/uploads/redfix.xlsx
+++ b/server/uploads/redfix.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,10 +430,10 @@
         <v>התרברב</v>
       </c>
       <c r="C2" t="str">
-        <v>red</v>
+        <v>white</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -444,16 +444,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>rebellious</v>
+        <v>mutual</v>
       </c>
       <c r="B3" t="str">
-        <v>מרדני</v>
+        <v>שופע</v>
       </c>
       <c r="C3" t="str">
-        <v>red</v>
+        <v>white</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -464,16 +464,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>drape</v>
+        <v>amorous</v>
       </c>
       <c r="B4" t="str">
-        <v>תלה, כיסה</v>
+        <v>מאוהב</v>
       </c>
       <c r="C4" t="str">
         <v>white</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -484,16 +484,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>consecutive</v>
+        <v>exploit</v>
       </c>
       <c r="B5" t="str">
-        <v>רצוף</v>
+        <v>לנצל</v>
       </c>
       <c r="C5" t="str">
         <v>white</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -504,16 +504,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>essence</v>
+        <v>outlets</v>
       </c>
       <c r="B6" t="str">
-        <v>מהות</v>
+        <v>מוֹצָאים</v>
       </c>
       <c r="C6" t="str">
         <v>white</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -524,124 +524,127 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>fairly</v>
+        <v>allude</v>
       </c>
       <c r="B7" t="str">
-        <v>למדי</v>
+        <v>לרמוז</v>
       </c>
       <c r="C7" t="str">
         <v>white</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
-      </c>
-      <c r="F7" t="str">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>throughout</v>
+        <v>tedious</v>
       </c>
       <c r="B8" t="str">
-        <v>בכולו</v>
+        <v>מעיק</v>
       </c>
       <c r="C8" t="str">
         <v>white</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>reverted</v>
+        <v>imposed</v>
       </c>
       <c r="B9" t="str">
-        <v>חזר</v>
+        <v>הטילה</v>
       </c>
       <c r="C9" t="str">
         <v>white</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="str">
-        <v/>
+        <v>martial law imposed</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>district</v>
+        <v>procrastination</v>
       </c>
       <c r="B10" t="str">
-        <v>מחוז</v>
+        <v>התמהמהות</v>
       </c>
       <c r="C10" t="str">
-        <v>green</v>
+        <v>white</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
-      </c>
-      <c r="F10" t="str">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>procrastination</v>
+        <v>pleas</v>
       </c>
       <c r="B11" t="str">
-        <v>התמהמהות</v>
+        <v>תחנונים</v>
       </c>
       <c r="C11" t="str">
-        <v>green</v>
+        <v>white</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>dispensable</v>
+        <v>essence</v>
       </c>
       <c r="B12" t="str">
-        <v>חסר</v>
+        <v>מהות</v>
       </c>
       <c r="C12" t="str">
         <v>white</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>diverting</v>
+        <v>interior</v>
       </c>
       <c r="B13" t="str">
-        <v>להטות</v>
+        <v>פְּנִים</v>
       </c>
       <c r="C13" t="str">
-        <v>green</v>
+        <v>white</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -649,56 +652,59 @@
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve">tremble </v>
+        <v>scarce</v>
       </c>
       <c r="B14" t="str">
-        <v>לרעוד</v>
+        <v>מועט</v>
       </c>
       <c r="C14" t="str">
-        <v>red</v>
+        <v>white</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>laid out</v>
+        <v>ailments</v>
       </c>
       <c r="B15" t="str">
-        <v>מונחת</v>
+        <v>מחלות</v>
       </c>
       <c r="C15" t="str">
         <v>white</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>abound</v>
+        <v>drab</v>
       </c>
       <c r="B16" t="str">
-        <v>שופע</v>
+        <v>בלוי</v>
       </c>
       <c r="C16" t="str">
-        <v>red</v>
+        <v>white</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -709,16 +715,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>scarce</v>
+        <v>graze</v>
       </c>
       <c r="B17" t="str">
-        <v>מועט</v>
+        <v>לרעות</v>
       </c>
       <c r="C17" t="str">
         <v>white</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -729,33 +735,36 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>compulsory</v>
+        <v>maintain</v>
       </c>
       <c r="B18" t="str">
-        <v>חובה</v>
+        <v>לתחזק</v>
       </c>
       <c r="C18" t="str">
         <v>white</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>exploit</v>
+        <v>flaws</v>
       </c>
       <c r="B19" t="str">
-        <v>לנצל</v>
+        <v>פגמים</v>
       </c>
       <c r="C19" t="str">
         <v>white</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -766,50 +775,56 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v xml:space="preserve">practice </v>
+        <v>relented</v>
       </c>
       <c r="B20" t="str">
-        <v>מנהג,נוהג</v>
+        <v>התרכך</v>
       </c>
       <c r="C20" t="str">
         <v>white</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v xml:space="preserve">can exact a toll </v>
+        <v>irate</v>
       </c>
       <c r="B21" t="str">
-        <v>יכול לגבות מחיר</v>
+        <v>זועם</v>
       </c>
       <c r="C21" t="str">
         <v>white</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>maintain</v>
+        <v>resenting</v>
       </c>
       <c r="B22" t="str">
-        <v>לתחזק</v>
+        <v>להתמרמר</v>
       </c>
       <c r="C22" t="str">
         <v>white</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -820,33 +835,36 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v xml:space="preserve">heresy </v>
+        <v>reprimand</v>
       </c>
       <c r="B23" t="str">
-        <v>כפירה</v>
+        <v>נזיפה</v>
       </c>
       <c r="C23" t="str">
-        <v>green</v>
+        <v>white</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>keep up with</v>
+        <v xml:space="preserve">eminence </v>
       </c>
       <c r="B24" t="str">
-        <v>עומדת בקצב</v>
+        <v>מעמד רם</v>
       </c>
       <c r="C24" t="str">
         <v>white</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -854,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>tether</v>
+        <v xml:space="preserve">foster </v>
       </c>
       <c r="B25" t="str">
-        <v>לקשור</v>
+        <v>מטפח</v>
       </c>
       <c r="C25" t="str">
         <v>white</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -871,47 +889,56 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>hollered</v>
+        <v>foster</v>
+      </c>
+      <c r="B26" t="str">
+        <v>עודד, טיפח</v>
       </c>
       <c r="C26" t="str">
         <v>white</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>radiance</v>
+        <v>sprang up</v>
       </c>
       <c r="B27" t="str">
-        <v>זוֹהַר</v>
+        <v>צצו</v>
       </c>
       <c r="C27" t="str">
         <v>white</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>pleas</v>
+        <v>predicament</v>
       </c>
       <c r="B28" t="str">
-        <v>תחנונים</v>
+        <v>מַצָב קָשֶׁה</v>
       </c>
       <c r="C28" t="str">
         <v>white</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -922,16 +949,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>trim</v>
+        <v>edict</v>
       </c>
       <c r="B29" t="str">
-        <v>לקצץ, לגזום; לסדר, לטפח; לעטר</v>
+        <v>צו</v>
       </c>
       <c r="C29" t="str">
         <v>white</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -942,16 +969,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>entitled</v>
+        <v>trim</v>
       </c>
       <c r="B30" t="str">
-        <v>זכאי</v>
+        <v>לקצץ, לגזום; לסדר, לטפח; לעטר</v>
       </c>
       <c r="C30" t="str">
         <v>white</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -962,53 +989,53 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>hollered</v>
+        <v>deposit</v>
       </c>
       <c r="B31" t="str">
-        <v>לצעוק</v>
+        <v>להפקיד</v>
       </c>
       <c r="C31" t="str">
         <v>white</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>ostentatious</v>
+        <v>Emptied</v>
       </c>
       <c r="B32" t="str">
-        <v>ראוותני</v>
+        <v>לרוקן</v>
       </c>
       <c r="C32" t="str">
         <v>white</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
-      </c>
-      <c r="F32" t="str">
-        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>notorious</v>
+        <v>deceptive</v>
       </c>
       <c r="B33" t="str">
-        <v>ידוע לשמצה</v>
+        <v>מטעה</v>
       </c>
       <c r="C33" t="str">
         <v>white</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1019,16 +1046,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>expedition</v>
+        <v xml:space="preserve">taunt </v>
       </c>
       <c r="B34" t="str">
-        <v>מִשׁלַחַת</v>
+        <v>לגלוג</v>
       </c>
       <c r="C34" t="str">
         <v>white</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1036,16 +1063,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v xml:space="preserve">coherence </v>
+        <v xml:space="preserve">instructive </v>
       </c>
       <c r="B35" t="str">
-        <v>עקביות</v>
+        <v>מְאַלֵף</v>
       </c>
       <c r="C35" t="str">
         <v>white</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1053,16 +1080,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>sprang up</v>
+        <v>acclaimed</v>
       </c>
       <c r="B36" t="str">
-        <v>צצו</v>
+        <v>זכה לשבחים</v>
       </c>
       <c r="C36" t="str">
         <v>white</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1073,33 +1100,36 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v xml:space="preserve">hesitant </v>
+        <v>tranquil</v>
       </c>
       <c r="B37" t="str">
-        <v>הססן</v>
+        <v>רגוע</v>
       </c>
       <c r="C37" t="str">
         <v>white</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>advocate</v>
+        <v xml:space="preserve">contagious </v>
       </c>
       <c r="B38" t="str">
-        <v>עורך דין</v>
+        <v>מידבק</v>
       </c>
       <c r="C38" t="str">
         <v>white</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1107,16 +1137,16 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>lulled</v>
+        <v>consecutive</v>
       </c>
       <c r="B39" t="str">
-        <v>הורגעו</v>
+        <v>רצוף</v>
       </c>
       <c r="C39" t="str">
         <v>white</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1127,33 +1157,36 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v xml:space="preserve">Ravenously </v>
+        <v>conjecture</v>
       </c>
       <c r="B40" t="str">
-        <v>אכל בהתלהבות</v>
+        <v>לְשַׁעֵר</v>
       </c>
       <c r="C40" t="str">
         <v>white</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Numb</v>
+        <v>laid out</v>
       </c>
       <c r="B41" t="str">
-        <v>רדום</v>
+        <v>מונחת</v>
       </c>
       <c r="C41" t="str">
         <v>white</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1161,36 +1194,33 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>ailments</v>
+        <v xml:space="preserve">redeemed </v>
       </c>
       <c r="B42" t="str">
-        <v>מחלות</v>
+        <v>קפדה</v>
       </c>
       <c r="C42" t="str">
         <v>white</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
-      </c>
-      <c r="F42" t="str">
-        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>concentrated</v>
+        <v>aspire</v>
       </c>
       <c r="B43" t="str">
-        <v>מְרוּכָּז</v>
+        <v>לִשְׁאוֹף</v>
       </c>
       <c r="C43" t="str">
         <v>white</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -1198,16 +1228,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>enhanced</v>
+        <v xml:space="preserve">ambiguous </v>
       </c>
       <c r="B44" t="str">
-        <v>משופרת</v>
+        <v>דו משמעי</v>
       </c>
       <c r="C44" t="str">
         <v>white</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -1215,81 +1245,90 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>imposed</v>
+        <v>orphaned</v>
       </c>
       <c r="B45" t="str">
-        <v>הטילה</v>
+        <v>יתום</v>
       </c>
       <c r="C45" t="str">
         <v>white</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="str">
-        <v>martial law imposed</v>
+        <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>curiosity</v>
+        <v>gratify</v>
       </c>
       <c r="B46" t="str">
-        <v>סַקרָנוּת</v>
+        <v>להשביע רצון</v>
       </c>
       <c r="C46" t="str">
         <v>white</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v xml:space="preserve">taunt </v>
+        <v>reverted</v>
       </c>
       <c r="B47" t="str">
-        <v>לגלוג</v>
+        <v>חזר</v>
       </c>
       <c r="C47" t="str">
         <v>white</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
+      </c>
+      <c r="F47" t="str">
+        <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v xml:space="preserve">assimilated </v>
+        <v>lavish</v>
       </c>
       <c r="B48" t="str">
-        <v>הטמיע</v>
+        <v>פזרני</v>
       </c>
       <c r="C48" t="str">
         <v>white</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>restriction</v>
+        <v>tarnished</v>
       </c>
       <c r="B49" t="str">
-        <v>הגבלה</v>
+        <v>מוכתם</v>
       </c>
       <c r="C49" t="str">
         <v>white</v>
@@ -1300,16 +1339,13 @@
       <c r="E49" t="b">
         <v>0</v>
       </c>
-      <c r="F49" t="str">
-        <v/>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>relented</v>
+        <v>makes up for</v>
       </c>
       <c r="B50" t="str">
-        <v>התרכך</v>
+        <v xml:space="preserve">מפצה </v>
       </c>
       <c r="C50" t="str">
         <v>white</v>
@@ -1320,22 +1356,19 @@
       <c r="E50" t="b">
         <v>0</v>
       </c>
-      <c r="F50" t="str">
-        <v/>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>keen</v>
+        <v>pavement</v>
       </c>
       <c r="B51" t="str">
-        <v>חד</v>
+        <v>מדרכה</v>
       </c>
       <c r="C51" t="str">
         <v>white</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -1346,70 +1379,61 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>reprimand</v>
+        <v>delve</v>
       </c>
       <c r="B52" t="str">
-        <v>נזיפה</v>
+        <v>לְהִתְעַמֵק</v>
       </c>
       <c r="C52" t="str">
         <v>white</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
-      </c>
-      <c r="F52" t="str">
-        <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>virtue</v>
+        <v xml:space="preserve">Vomit </v>
       </c>
       <c r="B53" t="str">
-        <v>מעלה</v>
+        <v>להקיא</v>
       </c>
       <c r="C53" t="str">
         <v>white</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
-      </c>
-      <c r="F53" t="str">
-        <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>pious</v>
+        <v>obscurity</v>
       </c>
       <c r="B54" t="str">
-        <v>אדוק</v>
+        <v>אלמוניות</v>
       </c>
       <c r="C54" t="str">
         <v>white</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
-      </c>
-      <c r="F54" t="str">
-        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>evacuate</v>
+        <v>radiance</v>
       </c>
       <c r="B55" t="str">
-        <v>לפנות</v>
+        <v>זוֹהַר</v>
       </c>
       <c r="C55" t="str">
         <v>white</v>
@@ -1419,23 +1443,20 @@
       </c>
       <c r="E55" t="b">
         <v>0</v>
-      </c>
-      <c r="F55" t="str">
-        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v xml:space="preserve">eminence </v>
+        <v>fanciful</v>
       </c>
       <c r="B56" t="str">
-        <v>מעמד רם</v>
+        <v>דִמיוֹנִי</v>
       </c>
       <c r="C56" t="str">
         <v>white</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -1443,33 +1464,36 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Vague</v>
+        <v>throughout</v>
       </c>
       <c r="B57" t="str">
-        <v>בטוח לא</v>
+        <v>בכולו,במשך</v>
       </c>
       <c r="C57" t="str">
         <v>white</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
+      </c>
+      <c r="F57" t="str">
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v xml:space="preserve">trampled </v>
+        <v>precise</v>
       </c>
       <c r="B58" t="str">
-        <v>רמס, דרס</v>
+        <v>מדיוק</v>
       </c>
       <c r="C58" t="str">
         <v>white</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -1477,30 +1501,27 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>intrigued</v>
+        <v>dispensable</v>
       </c>
       <c r="B59" t="str">
-        <v>מסוקרן</v>
+        <v>חסר</v>
       </c>
       <c r="C59" t="str">
         <v>white</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
-      </c>
-      <c r="F59" t="str">
-        <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v xml:space="preserve">redeemed </v>
+        <v xml:space="preserve">feigned </v>
       </c>
       <c r="B60" t="str">
-        <v>קפדה</v>
+        <v>העמיד פנים</v>
       </c>
       <c r="C60" t="str">
         <v>white</v>
@@ -1514,10 +1535,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>intact</v>
+        <v>Welded</v>
       </c>
       <c r="B61" t="str">
-        <v>שלם</v>
+        <v>להתחבר</v>
       </c>
       <c r="C61" t="str">
         <v>white</v>
@@ -1527,23 +1548,20 @@
       </c>
       <c r="E61" t="b">
         <v>0</v>
-      </c>
-      <c r="F61" t="str">
-        <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Gingerly</v>
+        <v>glimpse</v>
       </c>
       <c r="B62" t="str">
-        <v>בזהירות</v>
+        <v>הֲצָצָה</v>
       </c>
       <c r="C62" t="str">
         <v>white</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -1551,10 +1569,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>fanciful</v>
+        <v>outweigh</v>
       </c>
       <c r="B63" t="str">
-        <v>דִמיוֹנִי</v>
+        <v>לְהַכרִיעַ</v>
       </c>
       <c r="C63" t="str">
         <v>white</v>
@@ -1568,10 +1586,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>ornaments</v>
+        <v>keep up with</v>
       </c>
       <c r="B64" t="str">
-        <v>קישוטים</v>
+        <v>עומדת בקצב</v>
       </c>
       <c r="C64" t="str">
         <v>white</v>
@@ -1581,17 +1599,14 @@
       </c>
       <c r="E64" t="b">
         <v>0</v>
-      </c>
-      <c r="F64" t="str">
-        <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>pedestal</v>
+        <v>enhance</v>
       </c>
       <c r="B65" t="str">
-        <v>אדןתבסיס</v>
+        <v>להגביר</v>
       </c>
       <c r="C65" t="str">
         <v>white</v>
@@ -1605,16 +1620,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>amorous</v>
+        <v>– makes up for</v>
       </c>
       <c r="B66" t="str">
-        <v>מאוהב</v>
+        <v>מפצה על משהו</v>
       </c>
       <c r="C66" t="str">
         <v>white</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -1625,10 +1640,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>tarnished</v>
+        <v>timid</v>
       </c>
       <c r="B67" t="str">
-        <v>מוכתם</v>
+        <v>ביישן</v>
       </c>
       <c r="C67" t="str">
         <v>white</v>
@@ -1638,40 +1653,40 @@
       </c>
       <c r="E67" t="b">
         <v>0</v>
+      </c>
+      <c r="F67" t="str">
+        <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>perished</v>
+        <v>prone to</v>
       </c>
       <c r="B68" t="str">
-        <v>מת</v>
+        <v>מועדים ל</v>
       </c>
       <c r="C68" t="str">
         <v>white</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
-      </c>
-      <c r="F68" t="str">
-        <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v xml:space="preserve">instructive </v>
+        <v>pedestal</v>
       </c>
       <c r="B69" t="str">
-        <v>מְאַלֵף</v>
+        <v>אדןתבסיס</v>
       </c>
       <c r="C69" t="str">
         <v>white</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
@@ -1679,16 +1694,16 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>protagonist</v>
+        <v>upheaval</v>
       </c>
       <c r="B70" t="str">
-        <v>דמות ראשית</v>
+        <v>מַהְפָּך</v>
       </c>
       <c r="C70" t="str">
         <v>white</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -1696,10 +1711,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>conjecture</v>
+        <v>commemorate</v>
       </c>
       <c r="B71" t="str">
-        <v>לְשַׁעֵר</v>
+        <v>להנציח</v>
       </c>
       <c r="C71" t="str">
         <v>white</v>
@@ -1716,10 +1731,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>ascension</v>
+        <v>concentrated</v>
       </c>
       <c r="B72" t="str">
-        <v>עליה</v>
+        <v>מְרוּכָּז</v>
       </c>
       <c r="C72" t="str">
         <v>white</v>
@@ -1729,23 +1744,20 @@
       </c>
       <c r="E72" t="b">
         <v>0</v>
-      </c>
-      <c r="F72" t="str">
-        <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>fads</v>
+        <v>evacuate</v>
       </c>
       <c r="B73" t="str">
-        <v>גחמות</v>
+        <v>לפנות</v>
       </c>
       <c r="C73" t="str">
         <v>white</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
@@ -1756,10 +1768,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>inaugurated</v>
+        <v>fostering</v>
       </c>
       <c r="B74" t="str">
-        <v>חנך</v>
+        <v>לטפח</v>
       </c>
       <c r="C74" t="str">
         <v>white</v>
@@ -1776,16 +1788,16 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>foster</v>
+        <v>pious</v>
       </c>
       <c r="B75" t="str">
-        <v>עודד, טיפח</v>
+        <v>אדוק</v>
       </c>
       <c r="C75" t="str">
         <v>white</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
@@ -1796,30 +1808,27 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>commemorate</v>
+        <v xml:space="preserve">fugitive  </v>
       </c>
       <c r="B76" t="str">
-        <v>להנציח</v>
+        <v>נמלט</v>
       </c>
       <c r="C76" t="str">
         <v>white</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
-      </c>
-      <c r="F76" t="str">
-        <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>edict</v>
+        <v xml:space="preserve">practice </v>
       </c>
       <c r="B77" t="str">
-        <v>צו</v>
+        <v>מנהג,נוהג</v>
       </c>
       <c r="C77" t="str">
         <v>white</v>
@@ -1829,17 +1838,14 @@
       </c>
       <c r="E77" t="b">
         <v>0</v>
-      </c>
-      <c r="F77" t="str">
-        <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>preserve</v>
+        <v>throughout</v>
       </c>
       <c r="B78" t="str">
-        <v>נשמר</v>
+        <v>בכולו</v>
       </c>
       <c r="C78" t="str">
         <v>white</v>
@@ -1849,23 +1855,20 @@
       </c>
       <c r="E78" t="b">
         <v>0</v>
-      </c>
-      <c r="F78" t="str">
-        <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>interior</v>
+        <v>venturing</v>
       </c>
       <c r="B79" t="str">
-        <v>פְּנִים</v>
+        <v>להעז</v>
       </c>
       <c r="C79" t="str">
         <v>white</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
@@ -1873,10 +1876,10 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>pavement</v>
+        <v xml:space="preserve">can exact a toll </v>
       </c>
       <c r="B80" t="str">
-        <v>מדרכה</v>
+        <v>יכול לגבות מחיר</v>
       </c>
       <c r="C80" t="str">
         <v>white</v>
@@ -1886,23 +1889,20 @@
       </c>
       <c r="E80" t="b">
         <v>0</v>
-      </c>
-      <c r="F80" t="str">
-        <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Moaned</v>
+        <v>throb</v>
       </c>
       <c r="B81" t="str">
-        <v>להיאנח</v>
+        <v>פְּעִימָה</v>
       </c>
       <c r="C81" t="str">
         <v>white</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
@@ -1910,33 +1910,36 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>precise</v>
+        <v>unprecedented</v>
       </c>
       <c r="B82" t="str">
-        <v>מדיוק</v>
+        <v>חסר תקדים</v>
       </c>
       <c r="C82" t="str">
         <v>white</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
+      </c>
+      <c r="F82" t="str">
+        <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>sore</v>
+        <v>ostentatious</v>
       </c>
       <c r="B83" t="str">
-        <v>דלקת</v>
+        <v>ראוותני</v>
       </c>
       <c r="C83" t="str">
         <v>white</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
@@ -1947,10 +1950,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>culprit</v>
+        <v>advocate</v>
       </c>
       <c r="B84" t="str">
-        <v>נאשם, עבריין</v>
+        <v>עורך דין</v>
       </c>
       <c r="C84" t="str">
         <v>white</v>
@@ -1960,37 +1963,31 @@
       </c>
       <c r="E84" t="b">
         <v>0</v>
-      </c>
-      <c r="F84" t="str">
-        <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>mutual</v>
+        <v>self sufficient</v>
       </c>
       <c r="B85" t="str">
-        <v>שופע</v>
+        <v>עצמאי</v>
       </c>
       <c r="C85" t="str">
         <v>white</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
-      </c>
-      <c r="F85" t="str">
-        <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>fostering</v>
+        <v>flocked</v>
       </c>
       <c r="B86" t="str">
-        <v>לטפח</v>
+        <v>נהרו</v>
       </c>
       <c r="C86" t="str">
         <v>white</v>
@@ -2000,23 +1997,20 @@
       </c>
       <c r="E86" t="b">
         <v>0</v>
-      </c>
-      <c r="F86" t="str">
-        <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>obscure</v>
+        <v>virtue</v>
       </c>
       <c r="B87" t="str">
-        <v>מעורפל, לא ברור</v>
+        <v>מעלה</v>
       </c>
       <c r="C87" t="str">
         <v>white</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
@@ -2027,16 +2021,16 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>apparatus</v>
+        <v>overstated</v>
       </c>
       <c r="B88" t="str">
-        <v>מַנגָנוֹן</v>
+        <v>הפריזו</v>
       </c>
       <c r="C88" t="str">
         <v>white</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
@@ -2047,36 +2041,33 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>debut</v>
+        <v>substituting</v>
       </c>
       <c r="B89" t="str">
-        <v>הופיע לראשונה</v>
+        <v>מחליף</v>
       </c>
       <c r="C89" t="str">
         <v>white</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
-      </c>
-      <c r="F89" t="str">
-        <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>dispute</v>
+        <v>ascension</v>
       </c>
       <c r="B90" t="str">
-        <v>ויכוח</v>
+        <v>עליה</v>
       </c>
       <c r="C90" t="str">
         <v>white</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
@@ -2087,36 +2078,33 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>deceptive</v>
+        <v>audacity</v>
       </c>
       <c r="B91" t="str">
-        <v>מטעה</v>
+        <v>חוּצפָּה</v>
       </c>
       <c r="C91" t="str">
         <v>white</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
-      </c>
-      <c r="F91" t="str">
-        <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>resenting</v>
+        <v>pitched</v>
       </c>
       <c r="B92" t="str">
-        <v>מתרעם</v>
+        <v>נזרקו</v>
       </c>
       <c r="C92" t="str">
         <v>white</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -2127,30 +2115,27 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>zealous</v>
+        <v>Vague</v>
       </c>
       <c r="B93" t="str">
-        <v>נלהב</v>
+        <v>בטוח לא</v>
       </c>
       <c r="C93" t="str">
         <v>white</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
-      </c>
-      <c r="F93" t="str">
-        <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>lavish</v>
+        <v>compulsory</v>
       </c>
       <c r="B94" t="str">
-        <v>פזרני</v>
+        <v>חובה</v>
       </c>
       <c r="C94" t="str">
         <v>white</v>
@@ -2160,23 +2145,20 @@
       </c>
       <c r="E94" t="b">
         <v>0</v>
-      </c>
-      <c r="F94" t="str">
-        <v/>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>enlightened</v>
+        <v>convict</v>
       </c>
       <c r="B95" t="str">
-        <v/>
+        <v>אסיר</v>
       </c>
       <c r="C95" t="str">
         <v>white</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -2187,27 +2169,30 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v xml:space="preserve">Avenue </v>
+        <v>debut</v>
       </c>
       <c r="B96" t="str">
-        <v>שדרה</v>
+        <v>הופיע לראשונה</v>
       </c>
       <c r="C96" t="str">
         <v>white</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
+      </c>
+      <c r="F96" t="str">
+        <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>overstated</v>
+        <v>culprit</v>
       </c>
       <c r="B97" t="str">
-        <v>הפריזו</v>
+        <v>נאשם, עבריין</v>
       </c>
       <c r="C97" t="str">
         <v>white</v>
@@ -2224,53 +2209,53 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>encountered</v>
+        <v>inaugurated</v>
       </c>
       <c r="B98" t="str">
-        <v>נתקל ב</v>
+        <v>חנך</v>
       </c>
       <c r="C98" t="str">
         <v>white</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
+      </c>
+      <c r="F98" t="str">
+        <v/>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>deposit</v>
+        <v xml:space="preserve">convenient  means </v>
       </c>
       <c r="B99" t="str">
-        <v>להפקיד</v>
+        <v>אמצעי נוח</v>
       </c>
       <c r="C99" t="str">
         <v>white</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
-      </c>
-      <c r="F99" t="str">
-        <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>densely</v>
+        <v>thicket</v>
       </c>
       <c r="B100" t="str">
-        <v>בצפיפות</v>
+        <v>סְבַך</v>
       </c>
       <c r="C100" t="str">
         <v>white</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
@@ -2278,16 +2263,16 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Emptied</v>
+        <v>respiratory</v>
       </c>
       <c r="B101" t="str">
-        <v>לרוקן</v>
+        <v>מערכת הנשימה</v>
       </c>
       <c r="C101" t="str">
         <v>white</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
@@ -2295,16 +2280,16 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>summoned</v>
+        <v xml:space="preserve">attitude  </v>
       </c>
       <c r="B102" t="str">
-        <v>זומן</v>
+        <v>יחס</v>
       </c>
       <c r="C102" t="str">
         <v>white</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
@@ -2312,16 +2297,16 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v xml:space="preserve">contagious </v>
+        <v>enhanced</v>
       </c>
       <c r="B103" t="str">
-        <v>מידבק</v>
+        <v>משופרת</v>
       </c>
       <c r="C103" t="str">
         <v>white</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
@@ -2329,30 +2314,27 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>chant</v>
+        <v>absurd</v>
       </c>
       <c r="B104" t="str">
-        <v>לזמר</v>
+        <v>אַבּסוּרדִי</v>
       </c>
       <c r="C104" t="str">
         <v>white</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
-      </c>
-      <c r="F104" t="str">
-        <v/>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>faint</v>
+        <v>pluck</v>
       </c>
       <c r="B105" t="str">
-        <v>עמום</v>
+        <v>לִקְטוֹף</v>
       </c>
       <c r="C105" t="str">
         <v>white</v>
@@ -2362,17 +2344,14 @@
       </c>
       <c r="E105" t="b">
         <v>0</v>
-      </c>
-      <c r="F105" t="str">
-        <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>convict</v>
+        <v>quantity</v>
       </c>
       <c r="B106" t="str">
-        <v>אסיר</v>
+        <v>כַּמוּת</v>
       </c>
       <c r="C106" t="str">
         <v>white</v>
@@ -2382,37 +2361,31 @@
       </c>
       <c r="E106" t="b">
         <v>0</v>
-      </c>
-      <c r="F106" t="str">
-        <v/>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>graze</v>
+        <v>felt to pose</v>
       </c>
       <c r="B107" t="str">
-        <v>לרעות</v>
+        <v>הרגיש שמהווה איום</v>
       </c>
       <c r="C107" t="str">
         <v>white</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
-      </c>
-      <c r="F107" t="str">
-        <v/>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v xml:space="preserve">pruned </v>
+        <v>for sake</v>
       </c>
       <c r="B108" t="str">
-        <v>גזם, קצץ</v>
+        <v>עבור משהו</v>
       </c>
       <c r="C108" t="str">
         <v>white</v>
@@ -2426,30 +2399,27 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>pitched</v>
+        <v>Gingerly</v>
       </c>
       <c r="B109" t="str">
-        <v>נזרקו</v>
+        <v>בזהירות</v>
       </c>
       <c r="C109" t="str">
         <v>white</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
-      </c>
-      <c r="F109" t="str">
-        <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>venturing</v>
+        <v>furnish</v>
       </c>
       <c r="B110" t="str">
-        <v>להעז</v>
+        <v>לרהט</v>
       </c>
       <c r="C110" t="str">
         <v>white</v>
@@ -2463,36 +2433,33 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>tranquil</v>
+        <v>confiscate</v>
       </c>
       <c r="B111" t="str">
-        <v>רגוע</v>
+        <v>לְהַחרִים</v>
       </c>
       <c r="C111" t="str">
         <v>white</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
-      </c>
-      <c r="F111" t="str">
-        <v/>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v xml:space="preserve">ambiguous </v>
+        <v>summoned</v>
       </c>
       <c r="B112" t="str">
-        <v>דו משמעי</v>
+        <v>זומן</v>
       </c>
       <c r="C112" t="str">
         <v>white</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
@@ -2500,50 +2467,44 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>orphaned</v>
+        <v>decipher</v>
       </c>
       <c r="B113" t="str">
-        <v>יתום</v>
+        <v>לְפַעֲנֵחַ</v>
       </c>
       <c r="C113" t="str">
         <v>white</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
-      </c>
-      <c r="F113" t="str">
-        <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>instructive –</v>
+        <v xml:space="preserve">incentive </v>
       </c>
       <c r="B114" t="str">
-        <v>מאלף, מחכים</v>
+        <v>תמריץ</v>
       </c>
       <c r="C114" t="str">
         <v>white</v>
       </c>
       <c r="D114">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
-      </c>
-      <c r="F114" t="str">
-        <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>persuaded</v>
+        <v>frolick</v>
       </c>
       <c r="B115" t="str">
-        <v>השתכנע</v>
+        <v>להשתולל</v>
       </c>
       <c r="C115" t="str">
         <v>white</v>
@@ -2557,16 +2518,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>makes up for</v>
+        <v>assertive</v>
       </c>
       <c r="B116" t="str">
-        <v xml:space="preserve">מפצה </v>
+        <v>אסרטיבית,תקיף</v>
       </c>
       <c r="C116" t="str">
         <v>white</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
@@ -2574,30 +2535,27 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>taut</v>
+        <v xml:space="preserve">heresy </v>
       </c>
       <c r="B117" t="str">
-        <v>מתוח</v>
+        <v>כפירה</v>
       </c>
       <c r="C117" t="str">
         <v>white</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
-      </c>
-      <c r="F117" t="str">
-        <v/>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v xml:space="preserve">Vomit </v>
+        <v>persuaded</v>
       </c>
       <c r="B118" t="str">
-        <v>להקיא</v>
+        <v>השתכנע</v>
       </c>
       <c r="C118" t="str">
         <v>white</v>
@@ -2611,16 +2569,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>aspire</v>
+        <v>devotion</v>
       </c>
       <c r="B119" t="str">
-        <v>לִשְׁאוֹף</v>
+        <v>מְסִירוּת</v>
       </c>
       <c r="C119" t="str">
         <v>white</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
@@ -2628,56 +2586,50 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>flaws</v>
+        <v>thus</v>
       </c>
       <c r="B120" t="str">
-        <v>פגמים</v>
+        <v>לכן</v>
       </c>
       <c r="C120" t="str">
         <v>white</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
-      </c>
-      <c r="F120" t="str">
-        <v/>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>throughout</v>
+        <v>protagonist</v>
       </c>
       <c r="B121" t="str">
-        <v>בכולו,במשך</v>
+        <v>דמות ראשית</v>
       </c>
       <c r="C121" t="str">
         <v>white</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
-      </c>
-      <c r="F121" t="str">
-        <v/>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>unprecedented</v>
+        <v>zealous</v>
       </c>
       <c r="B122" t="str">
-        <v>חסר תקדים</v>
+        <v>נלהב</v>
       </c>
       <c r="C122" t="str">
         <v>white</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
@@ -2688,16 +2640,16 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>notwithstanding</v>
+        <v>affectionate</v>
       </c>
       <c r="B123" t="str">
-        <v>על אף</v>
+        <v>מחבב</v>
       </c>
       <c r="C123" t="str">
         <v>white</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
@@ -2705,10 +2657,10 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Welded</v>
+        <v>devotees</v>
       </c>
       <c r="B124" t="str">
-        <v>להתחבר</v>
+        <v>חסידים</v>
       </c>
       <c r="C124" t="str">
         <v>white</v>
@@ -2722,16 +2674,16 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>maintained</v>
+        <v>regimen</v>
       </c>
       <c r="B125" t="str">
-        <v>מתוחזקת</v>
+        <v>מִשׁטָר</v>
       </c>
       <c r="C125" t="str">
         <v>white</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
@@ -2739,10 +2691,10 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>susceptibility</v>
+        <v xml:space="preserve">trampled </v>
       </c>
       <c r="B126" t="str">
-        <v>רגישות</v>
+        <v>רמס, דרס</v>
       </c>
       <c r="C126" t="str">
         <v>white</v>
@@ -2756,10 +2708,10 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>reconciled</v>
+        <v>encountered</v>
       </c>
       <c r="B127" t="str">
-        <v>התפייס</v>
+        <v>נתקל ב</v>
       </c>
       <c r="C127" t="str">
         <v>white</v>
@@ -2769,43 +2721,34 @@
       </c>
       <c r="E127" t="b">
         <v>0</v>
-      </c>
-      <c r="F127" t="str">
-        <v/>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>– makes up for</v>
+        <v xml:space="preserve">Avenue </v>
       </c>
       <c r="B128" t="str">
-        <v>מפצה על משהו</v>
+        <v>שדרה</v>
       </c>
       <c r="C128" t="str">
         <v>white</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
-      </c>
-      <c r="F128" t="str">
-        <v/>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v xml:space="preserve">feigned </v>
-      </c>
-      <c r="B129" t="str">
-        <v>העמיד פנים</v>
+        <v>countenance</v>
       </c>
       <c r="C129" t="str">
         <v>white</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
@@ -2813,16 +2756,16 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>flocked</v>
+        <v>praise</v>
       </c>
       <c r="B130" t="str">
-        <v>נהרו</v>
+        <v>שֶׁבַח,להלל</v>
       </c>
       <c r="C130" t="str">
         <v>white</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
@@ -2830,16 +2773,16 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v xml:space="preserve">imitation </v>
+        <v xml:space="preserve">Ravenously </v>
       </c>
       <c r="B131" t="str">
-        <v>חיקוי</v>
+        <v>אכל בהתלהבות</v>
       </c>
       <c r="C131" t="str">
         <v>white</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
@@ -2847,30 +2790,27 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>drab</v>
+        <v>hinder</v>
       </c>
       <c r="B132" t="str">
-        <v>בלוי</v>
+        <v>לְעַכֵּב</v>
       </c>
       <c r="C132" t="str">
         <v>white</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
-      </c>
-      <c r="F132" t="str">
-        <v/>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>devotees</v>
+        <v>exhibit</v>
       </c>
       <c r="B133" t="str">
-        <v>חסידים</v>
+        <v>לְהַצִיג</v>
       </c>
       <c r="C133" t="str">
         <v>white</v>
@@ -2884,30 +2824,27 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>complies</v>
+        <v>conduct</v>
       </c>
       <c r="B134" t="str">
-        <v>נענה ל-</v>
+        <v>מנוהל,צורך</v>
       </c>
       <c r="C134" t="str">
         <v>white</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
-      </c>
-      <c r="F134" t="str">
-        <v/>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>asserted</v>
+        <v>tether</v>
       </c>
       <c r="B135" t="str">
-        <v>טען</v>
+        <v>לקשור</v>
       </c>
       <c r="C135" t="str">
         <v>white</v>
@@ -2917,23 +2854,20 @@
       </c>
       <c r="E135" t="b">
         <v>0</v>
-      </c>
-      <c r="F135" t="str">
-        <v/>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>obscurity</v>
+        <v>narrate</v>
       </c>
       <c r="B136" t="str">
-        <v>אלמוניות</v>
+        <v>לְסַפֵּר</v>
       </c>
       <c r="C136" t="str">
         <v>white</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
@@ -2941,16 +2875,16 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>corporations</v>
+        <v>faint</v>
       </c>
       <c r="B137" t="str">
-        <v>תאגידים</v>
+        <v>עמום</v>
       </c>
       <c r="C137" t="str">
         <v>white</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
@@ -2961,110 +2895,95 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>predicament</v>
+        <v xml:space="preserve">redeem </v>
       </c>
       <c r="B138" t="str">
-        <v>מַצָב קָשֶׁה</v>
+        <v>פודים, גואלים</v>
       </c>
       <c r="C138" t="str">
         <v>white</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
-      </c>
-      <c r="F138" t="str">
-        <v/>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>tedious</v>
+        <v xml:space="preserve">deduct </v>
       </c>
       <c r="B139" t="str">
-        <v>מעיק</v>
+        <v>לְנַכּוֹת</v>
       </c>
       <c r="C139" t="str">
         <v>white</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
-      </c>
-      <c r="F139" t="str">
-        <v/>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>advertise</v>
+        <v>Degenerated</v>
       </c>
       <c r="B140" t="str">
-        <v>פירסם</v>
+        <v>מנוון</v>
       </c>
       <c r="C140" t="str">
         <v>white</v>
       </c>
       <c r="D140">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
-      </c>
-      <c r="F140" t="str">
-        <v/>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>gratify</v>
+        <v>incentive</v>
       </c>
       <c r="B141" t="str">
-        <v>להשביע רצון</v>
+        <v>תַמרִיץ</v>
       </c>
       <c r="C141" t="str">
         <v>white</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
-      </c>
-      <c r="F141" t="str">
-        <v/>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>acclaimed</v>
+        <v>densely</v>
       </c>
       <c r="B142" t="str">
-        <v>זכה לשבחים</v>
+        <v>בצפיפות</v>
       </c>
       <c r="C142" t="str">
         <v>white</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
-      </c>
-      <c r="F142" t="str">
-        <v/>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Degenerated</v>
+        <v>obscure</v>
       </c>
       <c r="B143" t="str">
-        <v>מנוון</v>
+        <v>מעורפל, לא ברור</v>
       </c>
       <c r="C143" t="str">
         <v>white</v>
@@ -3074,20 +2993,23 @@
       </c>
       <c r="E143" t="b">
         <v>0</v>
+      </c>
+      <c r="F143" t="str">
+        <v/>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v xml:space="preserve">procession </v>
+        <v>depiction</v>
       </c>
       <c r="B144" t="str">
-        <v>תהלוכה</v>
+        <v>תיאור</v>
       </c>
       <c r="C144" t="str">
         <v>white</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
@@ -3095,30 +3017,27 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>timid</v>
+        <v>expense</v>
       </c>
       <c r="B145" t="str">
-        <v>ביישן</v>
+        <v>מחיר,על חשבון</v>
       </c>
       <c r="C145" t="str">
         <v>white</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
-      </c>
-      <c r="F145" t="str">
-        <v/>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>substituting</v>
+        <v>countenance</v>
       </c>
       <c r="B146" t="str">
-        <v>מחליף</v>
+        <v>אַרֶשֶׁת פָּנִים</v>
       </c>
       <c r="C146" t="str">
         <v>white</v>
@@ -3132,16 +3051,16 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>convent</v>
+        <v>lulled</v>
       </c>
       <c r="B147" t="str">
-        <v>מנזר</v>
+        <v>הורגעו</v>
       </c>
       <c r="C147" t="str">
         <v>white</v>
       </c>
       <c r="D147">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
@@ -3152,16 +3071,16 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v xml:space="preserve">provision </v>
+        <v>persuasive</v>
       </c>
       <c r="B148" t="str">
-        <v>אספקה</v>
+        <v>משכנע</v>
       </c>
       <c r="C148" t="str">
         <v>white</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
@@ -3169,10 +3088,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Ghfjf</v>
+        <v>influential</v>
       </c>
       <c r="B149" t="str">
-        <v>Fhfh</v>
+        <v>בעל השפעה</v>
       </c>
       <c r="C149" t="str">
         <v>white</v>
@@ -3186,36 +3105,33 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>irate</v>
+        <v xml:space="preserve">dispatch </v>
       </c>
       <c r="B150" t="str">
-        <v>זועם</v>
+        <v>לשדר לשלוח</v>
       </c>
       <c r="C150" t="str">
         <v>white</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
-      </c>
-      <c r="F150" t="str">
-        <v/>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v xml:space="preserve">foster </v>
+        <v>diabetes</v>
       </c>
       <c r="B151" t="str">
-        <v>מטפח</v>
+        <v>סוכרת</v>
       </c>
       <c r="C151" t="str">
         <v>white</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
@@ -3223,16 +3139,16 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>eloquent</v>
+        <v>curiosity</v>
       </c>
       <c r="B152" t="str">
-        <v>ברהיטות</v>
+        <v>סַקרָנוּת</v>
       </c>
       <c r="C152" t="str">
         <v>white</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
@@ -3240,16 +3156,16 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v xml:space="preserve">fugitive  </v>
+        <v>beloved</v>
       </c>
       <c r="B153" t="str">
-        <v>נמלט</v>
+        <v>אהוב</v>
       </c>
       <c r="C153" t="str">
         <v>white</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
@@ -3257,56 +3173,50 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>attire</v>
+        <v xml:space="preserve">pruned </v>
       </c>
       <c r="B154" t="str">
-        <v>לבוש</v>
+        <v>גזם, קצץ</v>
       </c>
       <c r="C154" t="str">
         <v>white</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
-      </c>
-      <c r="F154" t="str">
-        <v/>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>grimaced</v>
+        <v>distinctly</v>
       </c>
       <c r="B155" t="str">
-        <v>עווה את פניו</v>
+        <v>באופן מובהק</v>
       </c>
       <c r="C155" t="str">
         <v>white</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
-      </c>
-      <c r="F155" t="str">
-        <v/>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v xml:space="preserve">seemingly </v>
+        <v xml:space="preserve"> abroad </v>
       </c>
       <c r="B156" t="str">
-        <v>לכאורה</v>
+        <v>מחוץ לארץ</v>
       </c>
       <c r="C156" t="str">
         <v>white</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
@@ -3314,16 +3224,16 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>outlets</v>
+        <v>enlightened</v>
       </c>
       <c r="B157" t="str">
-        <v>מוֹצָאים</v>
+        <v/>
       </c>
       <c r="C157" t="str">
         <v>white</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
@@ -3337,24 +3247,293 @@
         <v>resenting</v>
       </c>
       <c r="B158" t="str">
-        <v>להתמרמר</v>
+        <v>מתרעם</v>
       </c>
       <c r="C158" t="str">
         <v>white</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="str">
         <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>resemble</v>
+      </c>
+      <c r="B159" t="str">
+        <v>לִדמוֹת</v>
+      </c>
+      <c r="C159" t="str">
+        <v>white</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>comprising</v>
+      </c>
+      <c r="B160" t="str">
+        <v>הכולל</v>
+      </c>
+      <c r="C160" t="str">
+        <v>white</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>proposal</v>
+      </c>
+      <c r="B161" t="str">
+        <v>הצעה</v>
+      </c>
+      <c r="C161" t="str">
+        <v>white</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>equalize</v>
+      </c>
+      <c r="B162" t="str">
+        <v>לְהַשְׁווֹת</v>
+      </c>
+      <c r="C162" t="str">
+        <v>white</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>expedition</v>
+      </c>
+      <c r="B163" t="str">
+        <v>מִשׁלַחַת</v>
+      </c>
+      <c r="C163" t="str">
+        <v>white</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>held sway</v>
+      </c>
+      <c r="B164" t="str">
+        <v>החזיק מעמד</v>
+      </c>
+      <c r="C164" t="str">
+        <v>white</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>growl</v>
+      </c>
+      <c r="B165" t="str">
+        <v>לִנְהוֹם</v>
+      </c>
+      <c r="C165" t="str">
+        <v>white</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>susceptibility</v>
+      </c>
+      <c r="B166" t="str">
+        <v>רגישות</v>
+      </c>
+      <c r="C166" t="str">
+        <v>white</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>adequate</v>
+      </c>
+      <c r="B167" t="str">
+        <v>נאות,הולם</v>
+      </c>
+      <c r="C167" t="str">
+        <v>white</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>hollered</v>
+      </c>
+      <c r="C168" t="str">
+        <v>white</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>persistence</v>
+      </c>
+      <c r="B169" t="str">
+        <v>הַתמָדָה</v>
+      </c>
+      <c r="C169" t="str">
+        <v>white</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>deliberate</v>
+      </c>
+      <c r="B170" t="str">
+        <v>מְכוּוָן</v>
+      </c>
+      <c r="C170" t="str">
+        <v>white</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>collide</v>
+      </c>
+      <c r="B171" t="str">
+        <v>לְהִתְנַגֵשׁ</v>
+      </c>
+      <c r="C171" t="str">
+        <v>white</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>involuntary</v>
+      </c>
+      <c r="B172" t="str">
+        <v>לֹא רְצוֹנִי</v>
+      </c>
+      <c r="C172" t="str">
+        <v>white</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>abide</v>
+      </c>
+      <c r="B173" t="str">
+        <v>לעמוד</v>
+      </c>
+      <c r="C173" t="str">
+        <v>white</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>hollered</v>
+      </c>
+      <c r="B174" t="str">
+        <v>לצעוק</v>
+      </c>
+      <c r="C174" t="str">
+        <v>white</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F158"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F174"/>
   </ignoredErrors>
 </worksheet>
 </file>